--- a/Table/Datas/CharacterData.xlsx
+++ b/Table/Datas/CharacterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectH\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC46EC-87C3-4E73-97F2-8818AC0B18A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75030CF9-A85C-4DEB-9C52-DD2AEA19F90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22005" yWindow="1665" windowWidth="21600" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -120,6 +120,22 @@
   </si>
   <si>
     <t>TArray&lt;FString&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIDs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;int32&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001, 1002, 1003, 1004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001, 2002, 2003, 2004</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,6 +226,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -504,13 +523,13 @@
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,8 +551,11 @@
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -547,7 +569,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -555,8 +577,11 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -567,19 +592,22 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -590,10 +618,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -601,8 +629,11 @@
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10001</v>
       </c>
@@ -612,20 +643,23 @@
       <c r="C6" s="4">
         <v>101</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10002</v>
       </c>
@@ -636,15 +670,18 @@
         <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
